--- a/data/trans_orig/P1412-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45EDC5E5-FD25-48BC-B997-E4FDAAA32BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8E9ED8D-A6CC-4693-8F4D-6B8F5D36AD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{28ADEC9A-6C05-4CF2-B73B-DE5D6FCD491C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F67D4C15-9DCC-4F2C-96A1-34568EB77F59}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="213">
   <si>
     <t>Población con diagnóstico de angina de pecho en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -79,19 +79,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,38%</t>
+    <t>3,64%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>5,9%</t>
+    <t>7,31%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>3,12%</t>
+    <t>3,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -100,7 +100,7 @@
     <t>99,3%</t>
   </si>
   <si>
-    <t>96,62%</t>
+    <t>96,36%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -109,13 +109,13 @@
     <t>98,95%</t>
   </si>
   <si>
-    <t>94,1%</t>
+    <t>92,69%</t>
   </si>
   <si>
     <t>99,13%</t>
   </si>
   <si>
-    <t>96,88%</t>
+    <t>96,98%</t>
   </si>
   <si>
     <t>100%</t>
@@ -130,601 +130,547 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,55%</t>
+    <t>1,46%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>99,06%</t>
   </si>
   <si>
     <t>99,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -1142,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E678EB-B241-4F37-B50D-81F9A8EF57D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2FB0FB-C699-4572-B405-F6C96FFC22E1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1737,7 +1683,7 @@
         <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -1746,13 +1692,13 @@
         <v>8484</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -1761,13 +1707,13 @@
         <v>12590</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,13 +1728,13 @@
         <v>753517</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>697</v>
@@ -1797,10 +1743,10 @@
         <v>768690</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>37</v>
@@ -1812,13 +1758,13 @@
         <v>1522207</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,7 +1820,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1889,10 +1835,10 @@
         <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1901,13 +1847,13 @@
         <v>4226</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -1916,13 +1862,13 @@
         <v>9333</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,13 +1883,13 @@
         <v>942632</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>998</v>
@@ -1952,13 +1898,13 @@
         <v>1046728</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>1903</v>
@@ -1967,13 +1913,13 @@
         <v>1989360</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,13 +1987,13 @@
         <v>22968</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -2059,10 +2005,10 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -2071,13 +2017,13 @@
         <v>47746</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,13 +2038,13 @@
         <v>3403811</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="H20" s="7">
         <v>3271</v>
@@ -2110,10 +2056,10 @@
         <v>19</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M20" s="7">
         <v>6459</v>
@@ -2205,7 +2151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C6B7E4-0669-4890-84EB-D77571E4C0FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D33A1A2-6899-4347-B42F-AB6422E05362}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2359,13 +2305,13 @@
         <v>1924</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,10 +2326,10 @@
         <v>114622</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2398,7 +2344,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -2410,10 +2356,10 @@
         <v>227982</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -2484,13 +2430,13 @@
         <v>1859</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2499,13 +2445,13 @@
         <v>3438</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -2514,13 +2460,13 @@
         <v>5297</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,10 +2481,10 @@
         <v>556395</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -2550,13 +2496,13 @@
         <v>556041</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>1085</v>
@@ -2565,13 +2511,13 @@
         <v>1112436</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,10 +2588,10 @@
         <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2654,13 +2600,13 @@
         <v>3551</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2672,10 +2618,10 @@
         <v>134</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2636,13 @@
         <v>1012434</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="H11" s="7">
         <v>974</v>
@@ -2705,13 +2651,13 @@
         <v>1039362</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M11" s="7">
         <v>1915</v>
@@ -2720,13 +2666,13 @@
         <v>2051795</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,13 +2740,13 @@
         <v>7905</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2809,13 +2755,13 @@
         <v>4733</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -2824,13 +2770,13 @@
         <v>12637</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,13 +2791,13 @@
         <v>751647</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>732</v>
@@ -2860,13 +2806,13 @@
         <v>780278</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="M14" s="7">
         <v>1421</v>
@@ -2875,13 +2821,13 @@
         <v>1531926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,7 +2883,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2949,13 +2895,13 @@
         <v>4469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2964,13 +2910,13 @@
         <v>7461</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -2979,13 +2925,13 @@
         <v>11931</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +2946,13 @@
         <v>933098</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="H17" s="7">
         <v>952</v>
@@ -3015,13 +2961,13 @@
         <v>1036318</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>1879</v>
@@ -3030,13 +2976,13 @@
         <v>1969415</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3050,13 @@
         <v>26154</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -3122,10 +3068,10 @@
         <v>66</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -3134,13 +3080,13 @@
         <v>45338</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3101,13 @@
         <v>3368196</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>3321</v>
@@ -3170,13 +3116,13 @@
         <v>3525359</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>6526</v>
@@ -3185,13 +3131,13 @@
         <v>6893554</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,7 +3214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7976135B-2087-4AFE-B206-69D82AD74E28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0273631D-9CDD-49B8-8DF8-878B2CB5A7DD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3285,7 +3231,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3392,13 +3338,13 @@
         <v>734</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3407,13 +3353,13 @@
         <v>589</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3422,13 +3368,13 @@
         <v>1323</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,10 +3389,10 @@
         <v>101248</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3458,10 +3404,10 @@
         <v>130144</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3473,13 +3419,13 @@
         <v>231392</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3493,13 @@
         <v>3591</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3562,13 +3508,13 @@
         <v>4878</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -3580,10 +3526,10 @@
         <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3544,13 @@
         <v>546232</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>195</v>
+        <v>89</v>
       </c>
       <c r="H8" s="7">
         <v>984</v>
@@ -3613,13 +3559,13 @@
         <v>586975</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>1590</v>
@@ -3631,10 +3577,10 @@
         <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,10 +3651,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3717,13 +3663,13 @@
         <v>3519</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3732,13 +3678,13 @@
         <v>10024</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,10 +3702,10 @@
         <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>1509</v>
@@ -3768,13 +3714,13 @@
         <v>1055237</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>2462</v>
@@ -3783,13 +3729,13 @@
         <v>2086665</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3803,13 @@
         <v>9189</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3872,13 +3818,13 @@
         <v>2880</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3887,13 +3833,13 @@
         <v>12069</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3854,13 @@
         <v>716324</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
         <v>1039</v>
@@ -3923,13 +3869,13 @@
         <v>870384</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>1703</v>
@@ -3938,13 +3884,13 @@
         <v>1586708</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,7 +3946,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4012,13 +3958,13 @@
         <v>11824</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4027,13 +3973,13 @@
         <v>7834</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -4042,13 +3988,13 @@
         <v>19658</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>219</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4009,13 @@
         <v>953579</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>1545</v>
@@ -4081,10 +4027,10 @@
         <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>2534</v>
@@ -4093,10 +4039,10 @@
         <v>2092240</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>59</v>
@@ -4167,13 +4113,13 @@
         <v>31843</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -4182,13 +4128,13 @@
         <v>19700</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="M19" s="7">
         <v>80</v>
@@ -4197,13 +4143,13 @@
         <v>51543</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4164,13 @@
         <v>3348810</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>228</v>
+        <v>88</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="H20" s="7">
         <v>5318</v>
@@ -4233,13 +4179,13 @@
         <v>3781400</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="M20" s="7">
         <v>8647</v>
@@ -4248,13 +4194,13 @@
         <v>7130211</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1412-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8E9ED8D-A6CC-4693-8F4D-6B8F5D36AD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42BA308B-3632-4271-A627-3E592FAF3F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F67D4C15-9DCC-4F2C-96A1-34568EB77F59}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A46E7FFD-6088-4DA0-8902-D177A458C567}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="217">
   <si>
     <t>Población con diagnóstico de angina de pecho en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -79,19 +79,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,64%</t>
+    <t>3,76%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>7,31%</t>
+    <t>5,74%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>3,02%</t>
+    <t>3,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -100,7 +100,7 @@
     <t>99,3%</t>
   </si>
   <si>
-    <t>96,36%</t>
+    <t>96,24%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -109,19 +109,19 @@
     <t>98,95%</t>
   </si>
   <si>
-    <t>92,69%</t>
+    <t>94,26%</t>
   </si>
   <si>
     <t>99,13%</t>
   </si>
   <si>
-    <t>96,98%</t>
+    <t>96,89%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,53%</t>
@@ -130,7 +130,7 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,46%</t>
+    <t>1,6%</t>
   </si>
   <si>
     <t>0,74%</t>
@@ -139,7 +139,7 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,81%</t>
+    <t>1,83%</t>
   </si>
   <si>
     <t>0,63%</t>
@@ -148,526 +148,538 @@
     <t>0,27%</t>
   </si>
   <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>98,73%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
   </si>
   <si>
     <t>99,48%</t>
@@ -1088,7 +1100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2FB0FB-C699-4572-B405-F6C96FFC22E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD64565-F67B-4528-B265-4114BB70BD52}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1683,7 +1695,7 @@
         <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -1692,13 +1704,13 @@
         <v>8484</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -1707,13 +1719,13 @@
         <v>12590</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,10 +1743,10 @@
         <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>697</v>
@@ -1743,13 +1755,13 @@
         <v>768690</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>1382</v>
@@ -1758,10 +1770,10 @@
         <v>1522207</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>79</v>
@@ -1865,10 +1877,10 @@
         <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,10 +1898,10 @@
         <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>998</v>
@@ -1898,13 +1910,13 @@
         <v>1046728</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>1903</v>
@@ -1913,13 +1925,13 @@
         <v>1989360</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1999,13 @@
         <v>22968</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -2005,10 +2017,10 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -2017,13 +2029,13 @@
         <v>47746</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2044,7 +2056,7 @@
         <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="H20" s="7">
         <v>3271</v>
@@ -2071,10 +2083,10 @@
         <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,7 +2142,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2151,7 +2163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D33A1A2-6899-4347-B42F-AB6422E05362}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABA8A1B-2832-4673-AE99-F4BE075BA50E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2168,7 +2180,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2275,13 +2287,13 @@
         <v>1924</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2293,10 +2305,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2305,13 +2317,13 @@
         <v>1924</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,10 +2338,10 @@
         <v>114622</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2344,7 +2356,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -2356,7 +2368,7 @@
         <v>227982</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>117</v>
@@ -2451,7 +2463,7 @@
         <v>121</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -2466,7 +2478,7 @@
         <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,10 +2493,10 @@
         <v>556395</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -2496,13 +2508,13 @@
         <v>556041</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M8" s="7">
         <v>1085</v>
@@ -2511,13 +2523,13 @@
         <v>1112436</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2597,13 @@
         <v>9997</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2600,13 +2612,13 @@
         <v>3551</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2615,13 +2627,13 @@
         <v>13549</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2648,13 @@
         <v>1012434</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H11" s="7">
         <v>974</v>
@@ -2651,13 +2663,13 @@
         <v>1039362</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M11" s="7">
         <v>1915</v>
@@ -2666,13 +2678,13 @@
         <v>2051795</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,13 +2752,13 @@
         <v>7905</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2770,7 +2782,7 @@
         <v>12637</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>144</v>
@@ -2794,10 +2806,10 @@
         <v>104</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>732</v>
@@ -2806,10 +2818,10 @@
         <v>780278</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>39</v>
@@ -2821,13 +2833,13 @@
         <v>1531926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2907,13 @@
         <v>4469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2910,13 +2922,13 @@
         <v>7461</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -2928,10 +2940,10 @@
         <v>142</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2958,13 @@
         <v>933098</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="H17" s="7">
         <v>952</v>
@@ -2976,13 +2988,13 @@
         <v>1969415</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>161</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,10 +3065,10 @@
         <v>162</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -3071,7 +3083,7 @@
         <v>118</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -3080,10 +3092,10 @@
         <v>45338</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>164</v>
@@ -3101,13 +3113,13 @@
         <v>3368196</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="H20" s="7">
         <v>3321</v>
@@ -3119,10 +3131,10 @@
         <v>73</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
         <v>6526</v>
@@ -3131,13 +3143,13 @@
         <v>6893554</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3205,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3214,7 +3226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0273631D-9CDD-49B8-8DF8-878B2CB5A7DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286B6016-F115-4B53-8E24-9A80A2742A6A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3231,7 +3243,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3338,13 +3350,13 @@
         <v>734</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3353,13 +3365,13 @@
         <v>589</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3368,13 +3380,13 @@
         <v>1323</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,10 +3401,10 @@
         <v>101248</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3404,10 +3416,10 @@
         <v>130144</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3419,13 +3431,13 @@
         <v>231392</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3505,13 @@
         <v>3591</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3508,13 +3520,13 @@
         <v>4878</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -3526,10 +3538,10 @@
         <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3556,13 @@
         <v>546232</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H8" s="7">
         <v>984</v>
@@ -3559,13 +3571,13 @@
         <v>586975</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M8" s="7">
         <v>1590</v>
@@ -3580,7 +3592,7 @@
         <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,7 +3663,7 @@
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>185</v>
@@ -3666,10 +3678,10 @@
         <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3678,7 +3690,7 @@
         <v>10024</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>35</v>
@@ -3702,10 +3714,10 @@
         <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="H11" s="7">
         <v>1509</v>
@@ -3714,13 +3726,13 @@
         <v>1055237</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>2462</v>
@@ -3729,10 +3741,10 @@
         <v>2086665</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>45</v>
@@ -3803,13 +3815,13 @@
         <v>9189</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3824,7 +3836,7 @@
         <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3833,13 +3845,13 @@
         <v>12069</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,13 +3866,13 @@
         <v>716324</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
         <v>1039</v>
@@ -3869,13 +3881,13 @@
         <v>870384</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>1703</v>
@@ -3884,13 +3896,13 @@
         <v>1586708</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +3970,13 @@
         <v>11824</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3973,13 +3985,13 @@
         <v>7834</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -3988,13 +4000,13 @@
         <v>19658</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +4021,13 @@
         <v>953579</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>1545</v>
@@ -4027,10 +4039,10 @@
         <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>2534</v>
@@ -4039,10 +4051,10 @@
         <v>2092240</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>59</v>
@@ -4113,13 +4125,13 @@
         <v>31843</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -4128,13 +4140,13 @@
         <v>19700</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M19" s="7">
         <v>80</v>
@@ -4143,13 +4155,13 @@
         <v>51543</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4176,13 @@
         <v>3348810</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H20" s="7">
         <v>5318</v>
@@ -4179,13 +4191,13 @@
         <v>3781400</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M20" s="7">
         <v>8647</v>
@@ -4194,13 +4206,13 @@
         <v>7130211</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,7 +4268,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1412-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42BA308B-3632-4271-A627-3E592FAF3F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D84C274-74D7-4305-B1A5-07B63F4AAAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A46E7FFD-6088-4DA0-8902-D177A458C567}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F8AE2E67-7D3A-4D01-9609-39114D633C83}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="231">
   <si>
     <t>Población con diagnóstico de angina de pecho en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,7%</t>
@@ -79,19 +79,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,76%</t>
+    <t>3,38%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>5,74%</t>
+    <t>5,9%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>3,11%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -100,7 +100,7 @@
     <t>99,3%</t>
   </si>
   <si>
-    <t>96,24%</t>
+    <t>96,62%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -109,13 +109,13 @@
     <t>98,95%</t>
   </si>
   <si>
-    <t>94,26%</t>
+    <t>94,1%</t>
   </si>
   <si>
     <t>99,13%</t>
   </si>
   <si>
-    <t>96,89%</t>
+    <t>96,88%</t>
   </si>
   <si>
     <t>100%</t>
@@ -130,544 +130,592 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,6%</t>
+    <t>1,55%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,11%</t>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
   </si>
   <si>
     <t>0,36%</t>
@@ -676,13 +724,7 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>98,68%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -1100,7 +1142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD64565-F67B-4528-B265-4114BB70BD52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88ADCD6-DFAB-4341-AB8C-3D22A1F281EC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1707,7 +1749,7 @@
         <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>70</v>
@@ -1725,7 +1767,7 @@
         <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1740,13 +1782,13 @@
         <v>753517</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>697</v>
@@ -1755,13 +1797,13 @@
         <v>768690</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="M14" s="7">
         <v>1382</v>
@@ -1770,13 +1812,13 @@
         <v>1522207</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,7 +1874,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1847,10 +1889,10 @@
         <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1859,13 +1901,13 @@
         <v>4226</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -1874,13 +1916,13 @@
         <v>9333</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1895,13 +1937,13 @@
         <v>942632</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>998</v>
@@ -1910,13 +1952,13 @@
         <v>1046728</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>1903</v>
@@ -1925,13 +1967,13 @@
         <v>1989360</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,7 +2044,7 @@
         <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>98</v>
@@ -2017,10 +2059,10 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -2029,13 +2071,13 @@
         <v>47746</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,13 +2092,13 @@
         <v>3403811</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H20" s="7">
         <v>3271</v>
@@ -2068,10 +2110,10 @@
         <v>19</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="M20" s="7">
         <v>6459</v>
@@ -2083,10 +2125,10 @@
         <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,7 +2184,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2163,7 +2205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABA8A1B-2832-4673-AE99-F4BE075BA50E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65B6B36-F76C-462D-A0C4-C757CEAE107D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2180,7 +2222,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2287,13 +2329,13 @@
         <v>1924</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2305,10 +2347,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2317,13 +2359,13 @@
         <v>1924</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,10 +2380,10 @@
         <v>114622</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2356,7 +2398,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -2368,10 +2410,10 @@
         <v>227982</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -2442,13 +2484,13 @@
         <v>1859</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2457,13 +2499,13 @@
         <v>3438</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -2472,13 +2514,13 @@
         <v>5297</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,10 +2535,10 @@
         <v>556395</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -2508,13 +2550,13 @@
         <v>556041</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>1085</v>
@@ -2523,13 +2565,13 @@
         <v>1112436</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2639,13 @@
         <v>9997</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2612,13 +2654,13 @@
         <v>3551</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2627,13 +2669,13 @@
         <v>13549</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2690,13 @@
         <v>1012434</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="H11" s="7">
         <v>974</v>
@@ -2663,13 +2705,13 @@
         <v>1039362</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M11" s="7">
         <v>1915</v>
@@ -2678,13 +2720,13 @@
         <v>2051795</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,13 +2794,13 @@
         <v>7905</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2767,13 +2809,13 @@
         <v>4733</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -2785,10 +2827,10 @@
         <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,13 +2845,13 @@
         <v>751647</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>732</v>
@@ -2818,13 +2860,13 @@
         <v>780278</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>1421</v>
@@ -2833,13 +2875,13 @@
         <v>1531926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,7 +2937,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2907,13 +2949,13 @@
         <v>4469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2922,13 +2964,13 @@
         <v>7461</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -2937,13 +2979,13 @@
         <v>11931</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +3000,13 @@
         <v>933098</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="H17" s="7">
         <v>952</v>
@@ -2973,13 +3015,13 @@
         <v>1036318</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M17" s="7">
         <v>1879</v>
@@ -2988,13 +3030,13 @@
         <v>1969415</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3104,13 @@
         <v>26154</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -3080,10 +3122,10 @@
         <v>66</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -3092,13 +3134,13 @@
         <v>45338</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3155,13 @@
         <v>3368196</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="H20" s="7">
         <v>3321</v>
@@ -3128,13 +3170,13 @@
         <v>3525359</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="M20" s="7">
         <v>6526</v>
@@ -3143,13 +3185,13 @@
         <v>6893554</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,7 +3247,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3226,7 +3268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286B6016-F115-4B53-8E24-9A80A2742A6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FC3A97-FC55-404D-B752-80D457D29457}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3243,7 +3285,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3350,13 +3392,13 @@
         <v>734</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3365,13 +3407,13 @@
         <v>589</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3380,13 +3422,13 @@
         <v>1323</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,10 +3443,10 @@
         <v>101248</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3416,10 +3458,10 @@
         <v>130144</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3431,13 +3473,13 @@
         <v>231392</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3547,13 @@
         <v>3591</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3523,10 +3565,10 @@
         <v>71</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -3538,10 +3580,10 @@
         <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3598,13 @@
         <v>546232</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="H8" s="7">
         <v>984</v>
@@ -3571,13 +3613,13 @@
         <v>586975</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>1590</v>
@@ -3589,10 +3631,10 @@
         <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,10 +3705,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3675,13 +3717,13 @@
         <v>3519</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3690,13 +3732,13 @@
         <v>10024</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,10 +3756,10 @@
         <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>1509</v>
@@ -3726,13 +3768,13 @@
         <v>1055237</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>2462</v>
@@ -3741,13 +3783,13 @@
         <v>2086665</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3857,13 @@
         <v>9189</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3830,13 +3872,13 @@
         <v>2880</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3845,13 +3887,13 @@
         <v>12069</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3908,13 @@
         <v>716324</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="H14" s="7">
         <v>1039</v>
@@ -3881,13 +3923,13 @@
         <v>870384</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>1703</v>
@@ -3896,13 +3938,13 @@
         <v>1586708</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,7 +4000,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3970,13 +4012,13 @@
         <v>11824</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3985,13 +4027,13 @@
         <v>7834</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -4000,13 +4042,13 @@
         <v>19658</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4063,13 @@
         <v>953579</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>1545</v>
@@ -4039,10 +4081,10 @@
         <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>2534</v>
@@ -4051,10 +4093,10 @@
         <v>2092240</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>59</v>
@@ -4125,13 +4167,13 @@
         <v>31843</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -4140,13 +4182,13 @@
         <v>19700</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="M19" s="7">
         <v>80</v>
@@ -4155,13 +4197,13 @@
         <v>51543</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,13 +4218,13 @@
         <v>3348810</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="H20" s="7">
         <v>5318</v>
@@ -4191,13 +4233,13 @@
         <v>3781400</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>8647</v>
@@ -4206,13 +4248,13 @@
         <v>7130211</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,7 +4310,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1412-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D84C274-74D7-4305-B1A5-07B63F4AAAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F358D341-465D-40C2-8BAB-280EB4D0F779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F8AE2E67-7D3A-4D01-9609-39114D633C83}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{86048578-8ED5-4986-A510-4EE69C4599F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="201">
   <si>
     <t>Población con diagnóstico de angina de pecho en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -67,670 +67,580 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>99,13%</t>
   </si>
   <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
   </si>
   <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>99,38%</t>
   </si>
 </sst>
 </file>
@@ -1142,8 +1052,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88ADCD6-DFAB-4341-AB8C-3D22A1F281EC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9D42A1-56A7-47AA-8363-9CDBD32156DB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1260,10 +1170,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>815</v>
+        <v>3923</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1275,85 +1185,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>1172</v>
+        <v>5483</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>1987</v>
+        <v>9406</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>121</v>
+        <v>670</v>
       </c>
       <c r="D5" s="7">
-        <v>114950</v>
+        <v>699546</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>98</v>
+        <v>645</v>
       </c>
       <c r="I5" s="7">
-        <v>110733</v>
+        <v>691567</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>219</v>
+        <v>1315</v>
       </c>
       <c r="N5" s="7">
-        <v>225683</v>
+        <v>1391113</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1362,153 +1272,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>3108</v>
+        <v>9832</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>4311</v>
+        <v>6585</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>7419</v>
+        <v>16417</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>549</v>
+        <v>928</v>
       </c>
       <c r="D8" s="7">
-        <v>584596</v>
+        <v>1008115</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>547</v>
+        <v>931</v>
       </c>
       <c r="I8" s="7">
-        <v>580834</v>
+        <v>1021206</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1096</v>
+        <v>1859</v>
       </c>
       <c r="N8" s="7">
-        <v>1165430</v>
+        <v>2029321</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1517,153 +1427,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>937</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1027791</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1873</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2045738</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4106</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="7">
-        <v>9832</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
       <c r="I10" s="7">
-        <v>6585</v>
+        <v>8484</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>16417</v>
+        <v>12590</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>928</v>
+        <v>685</v>
       </c>
       <c r="D11" s="7">
-        <v>1008115</v>
+        <v>753517</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>931</v>
+        <v>697</v>
       </c>
       <c r="I11" s="7">
-        <v>1021206</v>
+        <v>768690</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1859</v>
+        <v>1382</v>
       </c>
       <c r="N11" s="7">
-        <v>2029321</v>
+        <v>1522207</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1672,153 +1582,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>937</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1027791</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1873</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2045738</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5107</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
-        <v>4106</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
       <c r="I13" s="7">
-        <v>8484</v>
+        <v>4226</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="7">
+        <v>9</v>
+      </c>
+      <c r="N13" s="7">
+        <v>9333</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="7">
-        <v>12</v>
-      </c>
-      <c r="N13" s="7">
-        <v>12590</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>685</v>
+        <v>905</v>
       </c>
       <c r="D14" s="7">
-        <v>753517</v>
+        <v>942632</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>697</v>
+        <v>998</v>
       </c>
       <c r="I14" s="7">
-        <v>768690</v>
+        <v>1046728</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1903</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1989360</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1382</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1522207</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1827,99 +1737,99 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1002</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1050954</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1912</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1998693</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>5107</v>
+        <v>22968</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I16" s="7">
-        <v>4226</v>
+        <v>24778</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>44</v>
+      </c>
+      <c r="N16" s="7">
+        <v>47746</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M16" s="7">
-        <v>9</v>
-      </c>
-      <c r="N16" s="7">
-        <v>9333</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>89</v>
@@ -1928,52 +1838,52 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>905</v>
+        <v>3188</v>
       </c>
       <c r="D17" s="7">
-        <v>942632</v>
+        <v>3403811</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3271</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3528190</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="7">
-        <v>998</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1046728</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="7">
+        <v>6459</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6932001</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M17" s="7">
-        <v>1903</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1989360</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,217 +1892,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1002</v>
+        <v>3294</v>
       </c>
       <c r="I18" s="7">
-        <v>1050954</v>
+        <v>3552968</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1912</v>
+        <v>6503</v>
       </c>
       <c r="N18" s="7">
-        <v>1998693</v>
+        <v>6979747</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>21</v>
-      </c>
-      <c r="D19" s="7">
-        <v>22968</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="7">
-        <v>23</v>
-      </c>
-      <c r="I19" s="7">
-        <v>24778</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M19" s="7">
-        <v>44</v>
-      </c>
-      <c r="N19" s="7">
-        <v>47746</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3188</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3403811</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3271</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3528190</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6459</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6932001</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3294</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3552968</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6503</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6979747</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>109</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2205,8 +1959,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65B6B36-F76C-462D-A0C4-C757CEAE107D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1BD68C-13C8-4824-B350-99965B1B7303}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2222,7 +1976,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2323,100 +2077,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>1924</v>
+        <v>3783</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3438</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>1924</v>
+        <v>7221</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>111</v>
+        <v>648</v>
       </c>
       <c r="D5" s="7">
-        <v>114622</v>
+        <v>671017</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7">
-        <v>115</v>
+        <v>663</v>
       </c>
       <c r="I5" s="7">
-        <v>113360</v>
+        <v>669401</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>226</v>
+        <v>1311</v>
       </c>
       <c r="N5" s="7">
-        <v>227982</v>
+        <v>1340418</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,153 +2179,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>1859</v>
+        <v>9997</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>3438</v>
+        <v>3551</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>5297</v>
+        <v>13549</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>537</v>
+        <v>941</v>
       </c>
       <c r="D8" s="7">
-        <v>556395</v>
+        <v>1012434</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
-        <v>548</v>
+        <v>974</v>
       </c>
       <c r="I8" s="7">
-        <v>556041</v>
+        <v>1039362</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="M8" s="7">
-        <v>1085</v>
+        <v>1915</v>
       </c>
       <c r="N8" s="7">
-        <v>1112436</v>
+        <v>2051795</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,153 +2334,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>9997</v>
+        <v>7905</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>3551</v>
+        <v>4733</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>13549</v>
+        <v>12637</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>941</v>
+        <v>689</v>
       </c>
       <c r="D11" s="7">
-        <v>1012434</v>
+        <v>751647</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
-        <v>974</v>
+        <v>732</v>
       </c>
       <c r="I11" s="7">
-        <v>1039362</v>
+        <v>780278</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>1915</v>
+        <v>1421</v>
       </c>
       <c r="N11" s="7">
-        <v>2051795</v>
+        <v>1531926</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,153 +2489,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4469</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="7">
         <v>7</v>
       </c>
-      <c r="D13" s="7">
-        <v>7905</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
       <c r="I13" s="7">
-        <v>4733</v>
+        <v>7461</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>12637</v>
+        <v>11931</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>689</v>
+        <v>927</v>
       </c>
       <c r="D14" s="7">
-        <v>751647</v>
+        <v>933098</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
-        <v>732</v>
+        <v>952</v>
       </c>
       <c r="I14" s="7">
-        <v>780278</v>
+        <v>1036318</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="M14" s="7">
-        <v>1421</v>
+        <v>1879</v>
       </c>
       <c r="N14" s="7">
-        <v>1531926</v>
+        <v>1969415</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,153 +2644,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>4469</v>
+        <v>26154</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>7461</v>
+        <v>19183</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="N16" s="7">
-        <v>11931</v>
+        <v>45338</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>927</v>
+        <v>3205</v>
       </c>
       <c r="D17" s="7">
-        <v>933098</v>
+        <v>3368196</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7">
-        <v>952</v>
+        <v>3321</v>
       </c>
       <c r="I17" s="7">
-        <v>1036318</v>
+        <v>3525359</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="M17" s="7">
-        <v>1879</v>
+        <v>6526</v>
       </c>
       <c r="N17" s="7">
-        <v>1969415</v>
+        <v>6893554</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,217 +2799,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>26</v>
-      </c>
-      <c r="D19" s="7">
-        <v>26154</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H19" s="7">
-        <v>17</v>
-      </c>
-      <c r="I19" s="7">
-        <v>19183</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="7">
-        <v>43</v>
-      </c>
-      <c r="N19" s="7">
-        <v>45338</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3205</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3368196</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3321</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3525359</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6526</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6893554</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>109</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3268,8 +2866,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FC3A97-FC55-404D-B752-80D457D29457}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805FA3EC-1CBE-48DF-92BA-02D77B2B630C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3285,7 +2883,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3386,100 +2984,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>734</v>
+        <v>4028</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="7">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
       <c r="I4" s="7">
-        <v>589</v>
+        <v>5045</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>1323</v>
+        <v>9073</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>117</v>
+        <v>723</v>
       </c>
       <c r="D5" s="7">
-        <v>101248</v>
+        <v>631413</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
-        <v>241</v>
+        <v>1225</v>
       </c>
       <c r="I5" s="7">
-        <v>130144</v>
+        <v>669638</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
-        <v>358</v>
+        <v>1948</v>
       </c>
       <c r="N5" s="7">
-        <v>231392</v>
+        <v>1301052</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>188</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,153 +3086,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1237</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>674683</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310125</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6139</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
-        <v>3591</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>3201</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" s="7">
-        <v>10</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4878</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>8469</v>
+        <v>9341</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>606</v>
+        <v>953</v>
       </c>
       <c r="D8" s="7">
-        <v>546232</v>
+        <v>1185404</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1509</v>
+      </c>
+      <c r="I8" s="7">
+        <v>954236</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H8" s="7">
-        <v>984</v>
-      </c>
-      <c r="I8" s="7">
-        <v>586975</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
-        <v>1590</v>
+        <v>2462</v>
       </c>
       <c r="N8" s="7">
-        <v>1133207</v>
+        <v>2139639</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,153 +3241,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1191543</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>994</v>
+        <v>1515</v>
       </c>
       <c r="I9" s="7">
-        <v>591853</v>
+        <v>957437</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1606</v>
+        <v>2478</v>
       </c>
       <c r="N9" s="7">
-        <v>1141676</v>
+        <v>2148980</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>6505</v>
+        <v>8592</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>3519</v>
+        <v>2621</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>159</v>
       </c>
       <c r="M10" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>10024</v>
+        <v>11213</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>953</v>
+        <v>664</v>
       </c>
       <c r="D11" s="7">
-        <v>1031427</v>
+        <v>693015</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
-        <v>1509</v>
+        <v>1039</v>
       </c>
       <c r="I11" s="7">
-        <v>1055237</v>
+        <v>929694</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
-        <v>2462</v>
+        <v>1703</v>
       </c>
       <c r="N11" s="7">
-        <v>2086665</v>
+        <v>1622709</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,153 +3396,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>673</v>
       </c>
       <c r="D12" s="7">
-        <v>1037932</v>
+        <v>701607</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1515</v>
+        <v>1044</v>
       </c>
       <c r="I12" s="7">
-        <v>1058756</v>
+        <v>932315</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2478</v>
+        <v>1717</v>
       </c>
       <c r="N12" s="7">
-        <v>2096689</v>
+        <v>1633922</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>9189</v>
+        <v>11393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>2880</v>
+        <v>7063</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N13" s="7">
-        <v>12069</v>
+        <v>18456</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>664</v>
+        <v>989</v>
       </c>
       <c r="D14" s="7">
-        <v>716324</v>
+        <v>915438</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
-        <v>1039</v>
+        <v>1545</v>
       </c>
       <c r="I14" s="7">
-        <v>870384</v>
+        <v>1084453</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>123</v>
       </c>
       <c r="M14" s="7">
-        <v>1703</v>
+        <v>2534</v>
       </c>
       <c r="N14" s="7">
-        <v>1586708</v>
+        <v>1999891</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,153 +3551,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>673</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>725513</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1044</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>873264</v>
+        <v>1091516</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1717</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1598777</v>
+        <v>2018347</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7">
-        <v>11824</v>
+        <v>30153</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I16" s="7">
-        <v>7834</v>
+        <v>17930</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="M16" s="7">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="N16" s="7">
-        <v>19658</v>
+        <v>48083</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>219</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>989</v>
+        <v>3329</v>
       </c>
       <c r="D17" s="7">
-        <v>953579</v>
+        <v>3425269</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
-        <v>1545</v>
+        <v>5318</v>
       </c>
       <c r="I17" s="7">
-        <v>1138660</v>
+        <v>3638022</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
-        <v>2534</v>
+        <v>8647</v>
       </c>
       <c r="N17" s="7">
-        <v>2092240</v>
+        <v>7063291</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,217 +3706,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3372</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3455422</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5355</v>
       </c>
       <c r="I18" s="7">
-        <v>1146494</v>
+        <v>3655952</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8727</v>
       </c>
       <c r="N18" s="7">
-        <v>2111898</v>
+        <v>7111374</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>43</v>
-      </c>
-      <c r="D19" s="7">
-        <v>31843</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H19" s="7">
-        <v>37</v>
-      </c>
-      <c r="I19" s="7">
-        <v>19700</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="7">
-        <v>80</v>
-      </c>
-      <c r="N19" s="7">
-        <v>51543</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3329</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3348810</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5318</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3781400</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8647</v>
-      </c>
-      <c r="N20" s="7">
-        <v>7130211</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3372</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3380653</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5355</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3801100</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8727</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7181754</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>109</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
